--- a/study2/presentation_for_paper/study2_ridge_regression.xlsx
+++ b/study2/presentation_for_paper/study2_ridge_regression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study2/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{A5FE53C9-9AAB-4584-A3B7-C0D919175E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5D33E51-10EE-4338-8467-280C5F11C612}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{A5FE53C9-9AAB-4584-A3B7-C0D919175E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F21BDFF8-5FD9-4D29-BDDC-63493FA8F507}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{2BE86070-C855-4B77-8F9E-927CF5022178}"/>
   </bookViews>
@@ -195,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -223,22 +223,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -251,18 +242,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -272,19 +251,28 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -367,7 +355,72 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B5C5C7-9994-4B67-3C95-7E2060EC7775}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="660400" y="2305050"/>
+          <a:ext cx="6959600" cy="1968500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF27C0C-3E11-4C8E-91B3-8C8162A8F730}">
-  <dimension ref="D2:L12"/>
+  <dimension ref="D2:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M2" sqref="C2:M12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" outlineLevelCol="1"/>
@@ -704,7 +757,7 @@
     <col min="8" max="8" width="8.9140625" style="1" customWidth="1"/>
     <col min="9" max="10" width="9.08203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="7.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.08203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.08203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="0.4140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="16.9140625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="8.6640625" style="1"/>
@@ -741,207 +794,218 @@
       </c>
     </row>
     <row r="4" spans="4:12">
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="11">
         <v>1</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="11">
         <v>0.91710000000000003</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="11">
         <v>0.88139999999999996</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="12">
         <v>27.56</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="4:12">
-      <c r="D5" s="4"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="4" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="11">
         <v>10</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="11">
         <v>0.85899999999999999</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="11">
         <v>0.79830000000000001</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="13">
         <v>17.067</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="4:12">
-      <c r="D6" s="4"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="4" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="11">
         <v>10</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="11">
         <v>0.90480000000000005</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="11">
         <v>0.86380000000000001</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="13">
         <v>17.120799999999999</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="4:12">
-      <c r="D7" s="8"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="8" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="11">
         <v>1</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="11">
         <v>0.95789999999999997</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="11">
         <v>0.93969999999999998</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="13">
         <v>25.444500000000001</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="4:12">
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="5">
-        <v>10</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0.91710000000000003</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="K8" s="6">
-        <v>27.56</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>11</v>
-      </c>
+    <row r="8" spans="4:12" ht="6" customHeight="1">
+      <c r="D8" s="9"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="4:12">
-      <c r="D9" s="4"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="5">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0.79830000000000001</v>
-      </c>
-      <c r="K9" s="7">
-        <v>9.2470999999999997</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>20</v>
+      <c r="H9" s="11">
+        <v>10</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.91710000000000003</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="K9" s="12">
+        <v>27.56</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="4:12">
-      <c r="D10" s="4"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="11">
         <v>10</v>
       </c>
-      <c r="I10" s="5">
-        <v>0.90480000000000005</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0.86380000000000001</v>
-      </c>
-      <c r="K10" s="7">
-        <v>12.8948</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>21</v>
+      <c r="I10" s="11">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.79830000000000001</v>
+      </c>
+      <c r="K10" s="13">
+        <v>9.2470999999999997</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="4:12">
-      <c r="D11" s="8"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="8" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="11">
+        <v>10</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="K11" s="13">
+        <v>12.8948</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12">
+      <c r="D12" s="4"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H12" s="5">
         <v>10</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I12" s="5">
         <v>0.95789999999999997</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J12" s="5">
         <v>0.93969999999999998</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K12" s="6">
         <v>1.7094</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L12" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="4:12" ht="2.5" customHeight="1"/>
+    <row r="13" spans="4:12" ht="2.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E4:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
     <mergeCell ref="F4:F7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
@@ -953,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEC8CB1-5E4A-479C-AA8C-11274E73DB93}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
